--- a/test-data/test/9월_용역자명단_간단.xlsx
+++ b/test-data/test/9월_용역자명단_간단.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.56.104\tyranno_home\project\bill\nanumpay\test-data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F2BA02-826A-444D-98CF-5DF798FD840B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7A03D-56D3-4B5A-AACA-8F5083454A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="4410" windowWidth="22575" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="4725" windowWidth="19590" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="용역자 명단" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>순번</t>
   </si>
@@ -61,174 +61,123 @@
     <t>지사</t>
   </si>
   <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>최민수</t>
-  </si>
-  <si>
-    <t>010-1105-1195</t>
-  </si>
-  <si>
-    <t>850416-2285184</t>
-  </si>
-  <si>
-    <t>NH농협은행</t>
-  </si>
-  <si>
-    <t>115-1015-1105-25</t>
-  </si>
-  <si>
-    <t>010-2165-3255</t>
-  </si>
-  <si>
-    <t>최부장</t>
-  </si>
-  <si>
-    <t>010-5345-4435</t>
-  </si>
-  <si>
-    <t>무배당 현대해상 평생케어</t>
-  </si>
-  <si>
-    <t>현대해상</t>
-  </si>
-  <si>
-    <t>경기지사</t>
-  </si>
-  <si>
-    <t>최민수2</t>
-  </si>
-  <si>
-    <t>010-1112-1208</t>
-  </si>
-  <si>
-    <t>860517-1297529</t>
-  </si>
-  <si>
-    <t>카카오뱅크</t>
-  </si>
-  <si>
-    <t>3333-17-1000272</t>
-  </si>
-  <si>
-    <t>황민정2</t>
-  </si>
-  <si>
-    <t>010-2176-3272</t>
-  </si>
-  <si>
-    <t>최설계</t>
-  </si>
-  <si>
-    <t>010-5368-4464</t>
-  </si>
-  <si>
-    <t>무배당 AIA 건강플랜</t>
-  </si>
-  <si>
-    <t>AIA생명</t>
-  </si>
-  <si>
-    <t>부산지사</t>
-  </si>
-  <si>
     <t>한지민</t>
   </si>
   <si>
-    <t>010-1119-1221</t>
-  </si>
-  <si>
-    <t>870618-2309875</t>
-  </si>
-  <si>
-    <t>토스뱅크</t>
-  </si>
-  <si>
-    <t>1017-1051-1119</t>
-  </si>
-  <si>
-    <t>010-2187-3289</t>
-  </si>
-  <si>
-    <t>한매니저</t>
-  </si>
-  <si>
-    <t>010-5391-4493</t>
-  </si>
-  <si>
-    <t>무배당 푸르덴셜 가족사랑</t>
-  </si>
-  <si>
-    <t>푸르덴셜생명</t>
-  </si>
-  <si>
-    <t>대구지사</t>
-  </si>
-  <si>
-    <t>2025-09-02</t>
-  </si>
-  <si>
-    <t>이정재</t>
-  </si>
-  <si>
-    <t>010-1126-1234</t>
-  </si>
-  <si>
-    <t>880719-1322220</t>
-  </si>
-  <si>
-    <t>KB국민은행</t>
-  </si>
-  <si>
-    <t>100018-28-100126</t>
-  </si>
-  <si>
-    <t>010-2198-3306</t>
-  </si>
-  <si>
-    <t>이팀장</t>
-  </si>
-  <si>
-    <t>010-5414-4522</t>
-  </si>
-  <si>
-    <t>무배당 교보생명 안심보장</t>
-  </si>
-  <si>
-    <t>교보생명</t>
-  </si>
-  <si>
-    <t>광주지사</t>
-  </si>
-  <si>
-    <t>김영수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>991101-20901</t>
+  </si>
+  <si>
+    <t>국민은행</t>
+  </si>
+  <si>
+    <t>123-09-0001</t>
+  </si>
+  <si>
+    <t>010-0000-0000</t>
+  </si>
+  <si>
+    <t>992101-10902</t>
+  </si>
+  <si>
+    <t>123-09-0002</t>
+  </si>
+  <si>
+    <t>993101-20903</t>
+  </si>
+  <si>
+    <t>123-09-0003</t>
+  </si>
+  <si>
+    <t>임태호</t>
+  </si>
+  <si>
+    <t>994101-10904</t>
+  </si>
+  <si>
+    <t>123-09-0004</t>
+  </si>
+  <si>
+    <t>995101-20905</t>
+  </si>
+  <si>
+    <t>123-09-0005</t>
+  </si>
+  <si>
+    <t>996101-10906</t>
+  </si>
+  <si>
+    <t>123-09-0006</t>
+  </si>
+  <si>
+    <t>997101-20907</t>
+  </si>
+  <si>
+    <t>123-09-0007</t>
+  </si>
+  <si>
+    <t>998101-10908</t>
+  </si>
+  <si>
+    <t>123-09-0008</t>
+  </si>
+  <si>
+    <t>한지민1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한지민2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임태호1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임태호2</t>
+  </si>
+  <si>
+    <t>임태호3</t>
+  </si>
+  <si>
+    <t>임태호4</t>
+  </si>
+  <si>
+    <t>임태호5</t>
+  </si>
+  <si>
+    <t>박철수1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박철수3</t>
+  </si>
+  <si>
+    <t>박철수2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박철수4</t>
+  </si>
+  <si>
+    <t>한지민3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -238,18 +187,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF366092"/>
-        <bgColor rgb="FF366092"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,9 +209,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -571,75 +512,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -647,192 +586,308 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1">
+        <v>45914</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
       <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>48</v>
+      <c r="B5" s="1">
+        <v>45915</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45928</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test-data/test/9월_용역자명단_간단.xlsx
+++ b/test-data/test/9월_용역자명단_간단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.56.104\tyranno_home\project\bill\nanumpay\test-data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7A03D-56D3-4B5A-AACA-8F5083454A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7175605-410F-491E-A477-643536C95C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="4725" windowWidth="19590" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1275" windowWidth="22140" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>순번</t>
   </si>
@@ -165,6 +165,15 @@
   <si>
     <t>한지민3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+  </si>
+  <si>
+    <t>설계사 계좌번호</t>
+  </si>
+  <si>
+    <t>123-07-0001</t>
   </si>
 </sst>
 </file>
@@ -207,9 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -512,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,16 +537,17 @@
     <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,32 +569,38 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -604,23 +622,29 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -642,23 +666,29 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
-        <v>17</v>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -680,23 +710,29 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
       <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -718,23 +754,29 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="L5" t="s">
-        <v>17</v>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -756,23 +798,29 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
       <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" t="s">
-        <v>17</v>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -794,23 +842,29 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
       <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="L7" t="s">
-        <v>17</v>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -832,23 +886,29 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="L8" t="s">
-        <v>17</v>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -870,20 +930,26 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
       <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
         <v>41</v>
       </c>
-      <c r="L9" t="s">
-        <v>17</v>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/test/9월_용역자명단_간단.xlsx
+++ b/test-data/test/9월_용역자명단_간단.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.56.104\tyranno_home\project\bill\nanumpay\test-data\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\test-data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7175605-410F-491E-A477-643536C95C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB00A420-7FE5-4EFD-8230-44CD0B36DB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1275" windowWidth="22140" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33300" yWindow="2535" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>순번</t>
   </si>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>123-07-0001</t>
+  </si>
+  <si>
+    <t>설계사 은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,11 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -523,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -542,12 +544,12 @@
     <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +571,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
       <c r="I1" t="s">
@@ -587,20 +589,23 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -622,7 +627,7 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
@@ -640,11 +645,11 @@
       <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -666,7 +671,7 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>0.75</v>
       </c>
       <c r="I3" t="s">
@@ -684,11 +689,11 @@
       <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -710,7 +715,7 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>0.5</v>
       </c>
       <c r="I4" t="s">
@@ -728,11 +733,11 @@
       <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -754,7 +759,7 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>0.25</v>
       </c>
       <c r="I5" t="s">
@@ -772,11 +777,11 @@
       <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -798,7 +803,7 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
@@ -816,11 +821,11 @@
       <c r="M6" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -842,7 +847,7 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>0.75</v>
       </c>
       <c r="I7" t="s">
@@ -860,11 +865,11 @@
       <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -886,7 +891,7 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>0.5</v>
       </c>
       <c r="I8" t="s">
@@ -904,11 +909,11 @@
       <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -930,7 +935,7 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>0.25</v>
       </c>
       <c r="I9" t="s">
@@ -948,7 +953,7 @@
       <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" t="s">
         <v>48</v>
       </c>
     </row>
